--- a/data-migration/xlsx_1900-/1924_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1924_Winter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACEFE57-CEB8-4D4C-89CA-774511A3D124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30496A86-2E18-4C53-8FA8-1AB666773944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15930" yWindow="-21600" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4291,9 +4291,6 @@
     <t>meyer_a</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>vontuhr_a</t>
   </si>
   <si>
@@ -4339,18 +4336,12 @@
     <t>brun_h</t>
   </si>
   <si>
-    <t>walthard _m</t>
-  </si>
-  <si>
     <t>meyerrueegg_h</t>
   </si>
   <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
-    <t>anderes _e</t>
-  </si>
-  <si>
     <t>maier_hw</t>
   </si>
   <si>
@@ -4360,9 +4351,6 @@
     <t>silberschmidt _w</t>
   </si>
   <si>
-    <t>nager _fr</t>
-  </si>
-  <si>
     <t>wehrli_ga</t>
   </si>
   <si>
@@ -4472,6 +4460,18 @@
   </si>
   <si>
     <t>I. Semester: Mi. Sa. 8-10. II. Semester: Mo. Mi. 2-4.</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>walthard_m</t>
+  </si>
+  <si>
+    <t>nager_fr</t>
+  </si>
+  <si>
+    <t>anderes_e</t>
   </si>
 </sst>
 </file>
@@ -4815,8 +4815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E228" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H253" sqref="H253"/>
+    <sheetView tabSelected="1" topLeftCell="E145" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H155" sqref="H155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4850,7 +4850,7 @@
         <v>1298</v>
       </c>
       <c r="I1" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4876,7 +4876,7 @@
         <v>1298</v>
       </c>
       <c r="I2" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4902,10 +4902,10 @@
         <v>1421</v>
       </c>
       <c r="I3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J3" t="s">
         <v>1463</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4931,7 +4931,7 @@
         <v>1300</v>
       </c>
       <c r="I4" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4957,7 +4957,7 @@
         <v>1300</v>
       </c>
       <c r="I5" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4983,10 +4983,10 @@
         <v>1421</v>
       </c>
       <c r="I6" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J6" t="s">
         <v>1463</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -5012,7 +5012,7 @@
         <v>1301</v>
       </c>
       <c r="I7" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5038,7 +5038,7 @@
         <v>1422</v>
       </c>
       <c r="I8" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -5064,7 +5064,7 @@
         <v>1302</v>
       </c>
       <c r="I9" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -5090,7 +5090,7 @@
         <v>1301</v>
       </c>
       <c r="I10" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5116,7 +5116,7 @@
         <v>1301</v>
       </c>
       <c r="I11" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5142,7 +5142,7 @@
         <v>1303</v>
       </c>
       <c r="I12" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5168,7 +5168,7 @@
         <v>1301</v>
       </c>
       <c r="I13" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -5194,10 +5194,10 @@
         <v>1421</v>
       </c>
       <c r="I14" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J14" t="s">
         <v>1463</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -5223,7 +5223,7 @@
         <v>1299</v>
       </c>
       <c r="I15" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -5249,7 +5249,7 @@
         <v>1299</v>
       </c>
       <c r="I16" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -5272,10 +5272,10 @@
         <v>1007</v>
       </c>
       <c r="H17" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="I17" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -5301,7 +5301,7 @@
         <v>1298</v>
       </c>
       <c r="I18" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5324,10 +5324,10 @@
         <v>1008</v>
       </c>
       <c r="H19" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="I19" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5353,7 +5353,7 @@
         <v>1422</v>
       </c>
       <c r="I20" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5379,7 +5379,7 @@
         <v>1302</v>
       </c>
       <c r="I21" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5405,10 +5405,10 @@
         <v>1421</v>
       </c>
       <c r="I22" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J22" t="s">
         <v>1463</v>
-      </c>
-      <c r="J22" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5434,7 +5434,7 @@
         <v>1422</v>
       </c>
       <c r="I23" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5460,7 +5460,7 @@
         <v>1301</v>
       </c>
       <c r="I24" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5486,7 +5486,7 @@
         <v>1299</v>
       </c>
       <c r="I25" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5512,7 +5512,7 @@
         <v>1298</v>
       </c>
       <c r="I26" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5538,7 +5538,7 @@
         <v>1422</v>
       </c>
       <c r="I27" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5561,10 +5561,10 @@
         <v>1011</v>
       </c>
       <c r="H28" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="I28" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5590,7 +5590,7 @@
         <v>1304</v>
       </c>
       <c r="I29" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5616,7 +5616,7 @@
         <v>1305</v>
       </c>
       <c r="I30" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5642,7 +5642,7 @@
         <v>1306</v>
       </c>
       <c r="I31" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5665,13 +5665,13 @@
         <v>1018</v>
       </c>
       <c r="H32" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="I32" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J32" t="s">
         <v>1463</v>
-      </c>
-      <c r="J32" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -5694,13 +5694,13 @@
         <v>1019</v>
       </c>
       <c r="H33" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="I33" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J33" t="s">
         <v>1463</v>
-      </c>
-      <c r="J33" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -5726,7 +5726,7 @@
         <v>1307</v>
       </c>
       <c r="I34" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -5752,7 +5752,7 @@
         <v>1307</v>
       </c>
       <c r="I35" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -5778,7 +5778,7 @@
         <v>1308</v>
       </c>
       <c r="I36" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -5804,7 +5804,7 @@
         <v>1308</v>
       </c>
       <c r="I37" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -5827,10 +5827,10 @@
         <v>1023</v>
       </c>
       <c r="H38" t="s">
-        <v>1423</v>
+        <v>1480</v>
       </c>
       <c r="I38" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -5856,7 +5856,7 @@
         <v>1310</v>
       </c>
       <c r="I39" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -5882,7 +5882,7 @@
         <v>1310</v>
       </c>
       <c r="I40" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -5908,7 +5908,7 @@
         <v>1304</v>
       </c>
       <c r="I41" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -5934,7 +5934,7 @@
         <v>1304</v>
       </c>
       <c r="I42" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -5960,7 +5960,7 @@
         <v>1311</v>
       </c>
       <c r="I43" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -5986,7 +5986,7 @@
         <v>1312</v>
       </c>
       <c r="I44" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -6009,10 +6009,10 @@
         <v>1030</v>
       </c>
       <c r="H45" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="I45" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -6038,7 +6038,7 @@
         <v>1305</v>
       </c>
       <c r="I46" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -6064,7 +6064,7 @@
         <v>1313</v>
       </c>
       <c r="I47" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -6090,7 +6090,7 @@
         <v>1314</v>
       </c>
       <c r="I48" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -6116,7 +6116,7 @@
         <v>1314</v>
       </c>
       <c r="I49" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -6142,7 +6142,7 @@
         <v>1315</v>
       </c>
       <c r="I50" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -6168,7 +6168,7 @@
         <v>1305</v>
       </c>
       <c r="I51" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -6194,7 +6194,7 @@
         <v>1316</v>
       </c>
       <c r="I52" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -6220,7 +6220,7 @@
         <v>1316</v>
       </c>
       <c r="I53" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -6246,7 +6246,7 @@
         <v>1317</v>
       </c>
       <c r="I54" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -6272,7 +6272,7 @@
         <v>1317</v>
       </c>
       <c r="I55" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -6298,7 +6298,7 @@
         <v>1318</v>
       </c>
       <c r="I56" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -6324,7 +6324,7 @@
         <v>1318</v>
       </c>
       <c r="I57" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -6350,7 +6350,7 @@
         <v>1319</v>
       </c>
       <c r="I58" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -6373,10 +6373,10 @@
         <v>1039</v>
       </c>
       <c r="H59" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="I59" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -6399,10 +6399,10 @@
         <v>1040</v>
       </c>
       <c r="H60" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="I60" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -6425,10 +6425,10 @@
         <v>1021</v>
       </c>
       <c r="H61" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="I61" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -6454,7 +6454,7 @@
         <v>1321</v>
       </c>
       <c r="I62" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -6480,7 +6480,7 @@
         <v>1321</v>
       </c>
       <c r="I63" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -6506,7 +6506,7 @@
         <v>1322</v>
       </c>
       <c r="I64" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -6532,7 +6532,7 @@
         <v>1307</v>
       </c>
       <c r="I65" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -6558,7 +6558,7 @@
         <v>1310</v>
       </c>
       <c r="I66" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -6584,7 +6584,7 @@
         <v>1310</v>
       </c>
       <c r="I67" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -6610,7 +6610,7 @@
         <v>1306</v>
       </c>
       <c r="I68" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -6633,10 +6633,10 @@
         <v>1008</v>
       </c>
       <c r="H69" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="I69" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -6662,7 +6662,7 @@
         <v>1308</v>
       </c>
       <c r="I70" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -6688,7 +6688,7 @@
         <v>1304</v>
       </c>
       <c r="I71" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -6714,7 +6714,7 @@
         <v>1313</v>
       </c>
       <c r="I72" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -6740,7 +6740,7 @@
         <v>1323</v>
       </c>
       <c r="I73" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -6766,7 +6766,7 @@
         <v>1316</v>
       </c>
       <c r="I74" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -6792,7 +6792,7 @@
         <v>1317</v>
       </c>
       <c r="I75" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -6818,7 +6818,7 @@
         <v>1317</v>
       </c>
       <c r="I76" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -6841,10 +6841,10 @@
         <v>1051</v>
       </c>
       <c r="H77" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="I77" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -6870,7 +6870,7 @@
         <v>1319</v>
       </c>
       <c r="I78" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -6896,7 +6896,7 @@
         <v>1324</v>
       </c>
       <c r="I79" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -6919,10 +6919,10 @@
         <v>1051</v>
       </c>
       <c r="H80" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="I80" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
@@ -6948,7 +6948,7 @@
         <v>1321</v>
       </c>
       <c r="I81" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
@@ -6974,7 +6974,7 @@
         <v>1321</v>
       </c>
       <c r="I82" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
@@ -7003,10 +7003,10 @@
         <v>1325</v>
       </c>
       <c r="I83" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J83" t="s">
         <v>1463</v>
-      </c>
-      <c r="J83" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
@@ -7032,10 +7032,10 @@
         <v>1325</v>
       </c>
       <c r="I84" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J84" t="s">
         <v>1463</v>
-      </c>
-      <c r="J84" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
@@ -7061,10 +7061,10 @@
         <v>1325</v>
       </c>
       <c r="I85" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J85" t="s">
         <v>1463</v>
-      </c>
-      <c r="J85" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
@@ -7090,10 +7090,10 @@
         <v>1325</v>
       </c>
       <c r="I86" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J86" t="s">
         <v>1463</v>
-      </c>
-      <c r="J86" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
@@ -7119,22 +7119,22 @@
         <v>1325</v>
       </c>
       <c r="I87" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J87" t="s">
         <v>1463</v>
       </c>
-      <c r="J87" t="s">
-        <v>1467</v>
-      </c>
       <c r="K87" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="L87" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="M87" t="s">
         <v>1326</v>
       </c>
       <c r="N87" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
@@ -7160,7 +7160,7 @@
         <v>1326</v>
       </c>
       <c r="I88" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
@@ -7186,7 +7186,7 @@
         <v>1326</v>
       </c>
       <c r="I89" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
@@ -7212,7 +7212,7 @@
         <v>1326</v>
       </c>
       <c r="I90" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
@@ -7235,10 +7235,10 @@
         <v>1062</v>
       </c>
       <c r="H91" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I91" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
@@ -7261,10 +7261,10 @@
         <v>1042</v>
       </c>
       <c r="H92" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I92" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -7287,10 +7287,10 @@
         <v>1063</v>
       </c>
       <c r="H93" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I93" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
@@ -7313,10 +7313,10 @@
         <v>997</v>
       </c>
       <c r="H94" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I94" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
@@ -7339,10 +7339,10 @@
         <v>1064</v>
       </c>
       <c r="H95" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I95" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
@@ -7368,7 +7368,7 @@
         <v>1327</v>
       </c>
       <c r="I96" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -7394,7 +7394,7 @@
         <v>1327</v>
       </c>
       <c r="I97" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -7417,10 +7417,10 @@
         <v>1067</v>
       </c>
       <c r="H98" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="I98" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -7443,10 +7443,10 @@
         <v>1068</v>
       </c>
       <c r="H99" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="I99" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -7469,10 +7469,10 @@
         <v>1069</v>
       </c>
       <c r="H100" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="I100" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -7495,10 +7495,10 @@
         <v>1070</v>
       </c>
       <c r="H101" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="I101" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -7521,10 +7521,10 @@
         <v>1071</v>
       </c>
       <c r="H102" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="I102" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -7550,7 +7550,7 @@
         <v>1329</v>
       </c>
       <c r="I103" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -7576,7 +7576,7 @@
         <v>1329</v>
       </c>
       <c r="I104" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -7602,7 +7602,7 @@
         <v>1330</v>
       </c>
       <c r="I105" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -7628,7 +7628,7 @@
         <v>1330</v>
       </c>
       <c r="I106" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -7654,7 +7654,7 @@
         <v>1330</v>
       </c>
       <c r="I107" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -7680,7 +7680,7 @@
         <v>1330</v>
       </c>
       <c r="I108" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -7706,7 +7706,7 @@
         <v>1330</v>
       </c>
       <c r="I109" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -7729,10 +7729,10 @@
         <v>1078</v>
       </c>
       <c r="H110" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I110" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -7755,10 +7755,10 @@
         <v>1064</v>
       </c>
       <c r="H111" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I111" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -7781,10 +7781,10 @@
         <v>1079</v>
       </c>
       <c r="H112" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I112" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -7807,10 +7807,10 @@
         <v>1080</v>
       </c>
       <c r="H113" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="I113" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -7833,10 +7833,10 @@
         <v>1081</v>
       </c>
       <c r="H114" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="I114" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -7859,10 +7859,10 @@
         <v>1082</v>
       </c>
       <c r="H115" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="I115" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -7885,10 +7885,10 @@
         <v>1083</v>
       </c>
       <c r="H116" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I116" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -7911,10 +7911,10 @@
         <v>1003</v>
       </c>
       <c r="H117" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I117" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -7937,10 +7937,10 @@
         <v>1084</v>
       </c>
       <c r="H118" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="I118" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -7963,10 +7963,10 @@
         <v>1085</v>
       </c>
       <c r="H119" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="I119" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -7989,10 +7989,10 @@
         <v>1064</v>
       </c>
       <c r="H120" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="I120" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -8015,10 +8015,10 @@
         <v>1086</v>
       </c>
       <c r="H121" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="I121" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -8041,10 +8041,10 @@
         <v>1087</v>
       </c>
       <c r="H122" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="I122" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -8070,7 +8070,7 @@
         <v>1331</v>
       </c>
       <c r="I123" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -8096,7 +8096,7 @@
         <v>1331</v>
       </c>
       <c r="I124" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -8122,7 +8122,7 @@
         <v>1332</v>
       </c>
       <c r="I125" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -8139,16 +8139,16 @@
         <v>1417</v>
       </c>
       <c r="F126" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="G126" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="H126" t="s">
         <v>1332</v>
       </c>
       <c r="I126" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -8174,7 +8174,7 @@
         <v>1332</v>
       </c>
       <c r="I127" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -8200,7 +8200,7 @@
         <v>1333</v>
       </c>
       <c r="I128" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -8226,7 +8226,7 @@
         <v>1333</v>
       </c>
       <c r="I129" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -8249,10 +8249,10 @@
         <v>1003</v>
       </c>
       <c r="H130" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="I130" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -8275,10 +8275,10 @@
         <v>1003</v>
       </c>
       <c r="H131" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="I131" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -8301,10 +8301,10 @@
         <v>1091</v>
       </c>
       <c r="H132" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="I132" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -8327,10 +8327,10 @@
         <v>1092</v>
       </c>
       <c r="H133" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="I133" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -8356,7 +8356,7 @@
         <v>1335</v>
       </c>
       <c r="I134" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -8382,7 +8382,7 @@
         <v>1335</v>
       </c>
       <c r="I135" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -8408,7 +8408,7 @@
         <v>1336</v>
       </c>
       <c r="I136" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -8434,7 +8434,7 @@
         <v>1336</v>
       </c>
       <c r="I137" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -8460,7 +8460,7 @@
         <v>1337</v>
       </c>
       <c r="I138" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -8486,7 +8486,7 @@
         <v>1338</v>
       </c>
       <c r="I139" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -8512,7 +8512,7 @@
         <v>1338</v>
       </c>
       <c r="I140" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -8538,7 +8538,7 @@
         <v>1339</v>
       </c>
       <c r="I141" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -8561,10 +8561,10 @@
         <v>1047</v>
       </c>
       <c r="H142" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="I142" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8590,7 +8590,7 @@
         <v>1340</v>
       </c>
       <c r="I143" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8616,7 +8616,7 @@
         <v>1341</v>
       </c>
       <c r="I144" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -8642,7 +8642,7 @@
         <v>1341</v>
       </c>
       <c r="I145" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -8668,7 +8668,7 @@
         <v>1342</v>
       </c>
       <c r="I146" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -8694,7 +8694,7 @@
         <v>1342</v>
       </c>
       <c r="I147" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -8720,7 +8720,7 @@
         <v>1343</v>
       </c>
       <c r="I148" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -8746,7 +8746,7 @@
         <v>1343</v>
       </c>
       <c r="I149" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -8772,7 +8772,7 @@
         <v>1344</v>
       </c>
       <c r="I150" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -8798,7 +8798,7 @@
         <v>1344</v>
       </c>
       <c r="I151" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -8821,10 +8821,10 @@
         <v>1103</v>
       </c>
       <c r="H152" t="s">
-        <v>1439</v>
+        <v>1481</v>
       </c>
       <c r="I152" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -8847,10 +8847,10 @@
         <v>1104</v>
       </c>
       <c r="H153" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="I153" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -8873,10 +8873,10 @@
         <v>1105</v>
       </c>
       <c r="H154" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="I154" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -8899,10 +8899,10 @@
         <v>1106</v>
       </c>
       <c r="H155" t="s">
-        <v>1442</v>
+        <v>1483</v>
       </c>
       <c r="I155" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -8928,7 +8928,7 @@
         <v>1345</v>
       </c>
       <c r="I156" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -8954,7 +8954,7 @@
         <v>1345</v>
       </c>
       <c r="I157" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -8980,7 +8980,7 @@
         <v>1345</v>
       </c>
       <c r="I158" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -9006,7 +9006,7 @@
         <v>1345</v>
       </c>
       <c r="I159" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -9032,7 +9032,7 @@
         <v>1345</v>
       </c>
       <c r="I160" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -9055,10 +9055,10 @@
         <v>1112</v>
       </c>
       <c r="H161" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="I161" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -9084,10 +9084,10 @@
         <v>1320</v>
       </c>
       <c r="I162" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="J162" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -9113,10 +9113,10 @@
         <v>1320</v>
       </c>
       <c r="I163" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="J163" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -9142,10 +9142,10 @@
         <v>1320</v>
       </c>
       <c r="I164" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="J164" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
@@ -9168,10 +9168,10 @@
         <v>1115</v>
       </c>
       <c r="H165" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="I165" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
@@ -9194,10 +9194,10 @@
         <v>1116</v>
       </c>
       <c r="H166" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="I166" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
@@ -9220,10 +9220,10 @@
         <v>1117</v>
       </c>
       <c r="H167" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="I167" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -9249,7 +9249,7 @@
         <v>1346</v>
       </c>
       <c r="I168" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
@@ -9272,10 +9272,10 @@
         <v>1118</v>
       </c>
       <c r="H169" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="I169" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
@@ -9298,10 +9298,10 @@
         <v>1119</v>
       </c>
       <c r="H170" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="I170" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
@@ -9324,10 +9324,10 @@
         <v>1120</v>
       </c>
       <c r="H171" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="I171" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -9350,10 +9350,10 @@
         <v>1121</v>
       </c>
       <c r="H172" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="I172" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
@@ -9376,10 +9376,10 @@
         <v>1122</v>
       </c>
       <c r="H173" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="I173" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
@@ -9402,10 +9402,10 @@
         <v>1123</v>
       </c>
       <c r="H174" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="I174" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
@@ -9428,10 +9428,10 @@
         <v>1003</v>
       </c>
       <c r="H175" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="I175" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
@@ -9454,10 +9454,10 @@
         <v>1124</v>
       </c>
       <c r="H176" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="I176" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -9483,7 +9483,7 @@
         <v>1347</v>
       </c>
       <c r="I177" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -9509,7 +9509,7 @@
         <v>1347</v>
       </c>
       <c r="I178" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -9535,7 +9535,7 @@
         <v>1347</v>
       </c>
       <c r="I179" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -9561,7 +9561,7 @@
         <v>1347</v>
       </c>
       <c r="I180" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -9584,10 +9584,10 @@
         <v>1129</v>
       </c>
       <c r="H181" t="s">
-        <v>1446</v>
+        <v>1482</v>
       </c>
       <c r="I181" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -9610,10 +9610,10 @@
         <v>1130</v>
       </c>
       <c r="H182" t="s">
-        <v>1446</v>
+        <v>1482</v>
       </c>
       <c r="I182" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -9630,16 +9630,16 @@
         <v>1417</v>
       </c>
       <c r="F183" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="G183" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="H183" t="s">
-        <v>1446</v>
+        <v>1482</v>
       </c>
       <c r="I183" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -9665,7 +9665,7 @@
         <v>1348</v>
       </c>
       <c r="I184" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -9688,10 +9688,10 @@
         <v>1003</v>
       </c>
       <c r="H185" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="I185" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -9717,7 +9717,7 @@
         <v>1349</v>
       </c>
       <c r="I186" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -9743,7 +9743,7 @@
         <v>1349</v>
       </c>
       <c r="I187" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -9769,7 +9769,7 @@
         <v>1349</v>
       </c>
       <c r="I188" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -9792,10 +9792,10 @@
         <v>1028</v>
       </c>
       <c r="H189" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="I189" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -9818,10 +9818,10 @@
         <v>1135</v>
       </c>
       <c r="H190" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="I190" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -9847,7 +9847,7 @@
         <v>1350</v>
       </c>
       <c r="I191" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -9873,7 +9873,7 @@
         <v>1350</v>
       </c>
       <c r="I192" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -9899,7 +9899,7 @@
         <v>1350</v>
       </c>
       <c r="I193" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -9925,7 +9925,7 @@
         <v>1350</v>
       </c>
       <c r="I194" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -9951,7 +9951,7 @@
         <v>1350</v>
       </c>
       <c r="I195" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -9974,10 +9974,10 @@
         <v>1141</v>
       </c>
       <c r="H196" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="I196" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -10000,10 +10000,10 @@
         <v>1142</v>
       </c>
       <c r="H197" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="I197" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -10026,10 +10026,10 @@
         <v>1143</v>
       </c>
       <c r="H198" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="I198" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -10052,10 +10052,10 @@
         <v>1144</v>
       </c>
       <c r="H199" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="I199" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -10078,10 +10078,10 @@
         <v>1145</v>
       </c>
       <c r="H200" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="I200" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -10107,7 +10107,7 @@
         <v>1351</v>
       </c>
       <c r="I201" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -10124,16 +10124,16 @@
         <v>1417</v>
       </c>
       <c r="F202" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="G202" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="H202" t="s">
         <v>1351</v>
       </c>
       <c r="I202" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -10159,7 +10159,7 @@
         <v>1351</v>
       </c>
       <c r="I203" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -10182,10 +10182,10 @@
         <v>1148</v>
       </c>
       <c r="H204" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="I204" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -10208,10 +10208,10 @@
         <v>1149</v>
       </c>
       <c r="H205" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="I205" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -10234,10 +10234,10 @@
         <v>1150</v>
       </c>
       <c r="H206" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="I206" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -10263,7 +10263,7 @@
         <v>1353</v>
       </c>
       <c r="I207" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -10289,7 +10289,7 @@
         <v>1354</v>
       </c>
       <c r="I208" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
@@ -10315,7 +10315,7 @@
         <v>1354</v>
       </c>
       <c r="I209" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
@@ -10341,7 +10341,7 @@
         <v>1354</v>
       </c>
       <c r="I210" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
@@ -10367,7 +10367,7 @@
         <v>1354</v>
       </c>
       <c r="I211" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
@@ -10393,7 +10393,7 @@
         <v>1354</v>
       </c>
       <c r="I212" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
@@ -10419,7 +10419,7 @@
         <v>1353</v>
       </c>
       <c r="I213" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
@@ -10445,7 +10445,7 @@
         <v>1353</v>
       </c>
       <c r="I214" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
@@ -10471,10 +10471,10 @@
         <v>1355</v>
       </c>
       <c r="I215" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J215" t="s">
         <v>1463</v>
-      </c>
-      <c r="J215" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
@@ -10500,10 +10500,10 @@
         <v>1355</v>
       </c>
       <c r="I216" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J216" t="s">
         <v>1463</v>
-      </c>
-      <c r="J216" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
@@ -10529,16 +10529,16 @@
         <v>1355</v>
       </c>
       <c r="I217" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J217" t="s">
         <v>1463</v>
-      </c>
-      <c r="J217" t="s">
-        <v>1467</v>
       </c>
       <c r="K217" t="s">
         <v>1312</v>
       </c>
       <c r="L217" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
@@ -10564,16 +10564,16 @@
         <v>1355</v>
       </c>
       <c r="I218" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J218" t="s">
         <v>1463</v>
-      </c>
-      <c r="J218" t="s">
-        <v>1467</v>
       </c>
       <c r="K218" t="s">
         <v>1312</v>
       </c>
       <c r="L218" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
@@ -10599,10 +10599,10 @@
         <v>1355</v>
       </c>
       <c r="I219" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J219" t="s">
         <v>1463</v>
-      </c>
-      <c r="J219" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
@@ -10628,7 +10628,7 @@
         <v>1312</v>
       </c>
       <c r="I220" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
@@ -10654,7 +10654,7 @@
         <v>1356</v>
       </c>
       <c r="I221" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
@@ -10680,7 +10680,7 @@
         <v>1356</v>
       </c>
       <c r="I222" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
@@ -10706,7 +10706,7 @@
         <v>1356</v>
       </c>
       <c r="I223" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
@@ -10732,7 +10732,7 @@
         <v>1357</v>
       </c>
       <c r="I224" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -10758,7 +10758,7 @@
         <v>1357</v>
       </c>
       <c r="I225" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -10784,7 +10784,7 @@
         <v>1357</v>
       </c>
       <c r="I226" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -10810,7 +10810,7 @@
         <v>1357</v>
       </c>
       <c r="I227" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -10836,7 +10836,7 @@
         <v>1357</v>
       </c>
       <c r="I228" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -10859,10 +10859,10 @@
         <v>1167</v>
       </c>
       <c r="H229" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="I229" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -10885,10 +10885,10 @@
         <v>1053</v>
       </c>
       <c r="H230" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="I230" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -10911,10 +10911,10 @@
         <v>1035</v>
       </c>
       <c r="H231" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="I231" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -10937,10 +10937,10 @@
         <v>1092</v>
       </c>
       <c r="H232" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="I232" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -10963,10 +10963,10 @@
         <v>1060</v>
       </c>
       <c r="H233" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="I233" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -10992,7 +10992,7 @@
         <v>1358</v>
       </c>
       <c r="I234" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -11018,7 +11018,7 @@
         <v>1358</v>
       </c>
       <c r="I235" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -11044,7 +11044,7 @@
         <v>1358</v>
       </c>
       <c r="I236" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -11070,7 +11070,7 @@
         <v>1358</v>
       </c>
       <c r="I237" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -11096,7 +11096,7 @@
         <v>1358</v>
       </c>
       <c r="I238" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -11122,7 +11122,7 @@
         <v>1359</v>
       </c>
       <c r="I239" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -11148,7 +11148,7 @@
         <v>1359</v>
       </c>
       <c r="I240" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -11174,7 +11174,7 @@
         <v>1359</v>
       </c>
       <c r="I241" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -11200,7 +11200,7 @@
         <v>1360</v>
       </c>
       <c r="I242" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -11226,7 +11226,7 @@
         <v>1360</v>
       </c>
       <c r="I243" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -11252,7 +11252,7 @@
         <v>1361</v>
       </c>
       <c r="I244" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -11278,7 +11278,7 @@
         <v>1360</v>
       </c>
       <c r="I245" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -11304,7 +11304,7 @@
         <v>1362</v>
       </c>
       <c r="I246" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -11330,7 +11330,7 @@
         <v>1362</v>
       </c>
       <c r="I247" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -11353,10 +11353,10 @@
         <v>1177</v>
       </c>
       <c r="H248" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="I248" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -11379,10 +11379,10 @@
         <v>996</v>
       </c>
       <c r="H249" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="I249" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -11408,7 +11408,7 @@
         <v>1361</v>
       </c>
       <c r="I250" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -11434,7 +11434,7 @@
         <v>1363</v>
       </c>
       <c r="I251" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -11460,7 +11460,7 @@
         <v>1361</v>
       </c>
       <c r="I252" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -11486,7 +11486,7 @@
         <v>1306</v>
       </c>
       <c r="I253" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -11512,7 +11512,7 @@
         <v>1306</v>
       </c>
       <c r="I254" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -11538,7 +11538,7 @@
         <v>1306</v>
       </c>
       <c r="I255" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -11564,7 +11564,7 @@
         <v>1363</v>
       </c>
       <c r="I256" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11587,10 +11587,10 @@
         <v>1127</v>
       </c>
       <c r="H257" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="I257" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11613,10 +11613,10 @@
         <v>1146</v>
       </c>
       <c r="H258" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="I258" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11639,10 +11639,10 @@
         <v>1048</v>
       </c>
       <c r="H259" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="I259" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11668,7 +11668,7 @@
         <v>1361</v>
       </c>
       <c r="I260" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11691,10 +11691,10 @@
         <v>1049</v>
       </c>
       <c r="H261" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="I261" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11720,7 +11720,7 @@
         <v>1361</v>
       </c>
       <c r="I262" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11743,10 +11743,10 @@
         <v>1044</v>
       </c>
       <c r="H263" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="I263" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11772,7 +11772,7 @@
         <v>1364</v>
       </c>
       <c r="I264" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11795,10 +11795,10 @@
         <v>1185</v>
       </c>
       <c r="H265" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="I265" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11824,7 +11824,7 @@
         <v>1361</v>
       </c>
       <c r="I266" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11850,7 +11850,7 @@
         <v>1365</v>
       </c>
       <c r="I267" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11876,7 +11876,7 @@
         <v>1365</v>
       </c>
       <c r="I268" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11902,7 +11902,7 @@
         <v>1366</v>
       </c>
       <c r="I269" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11928,7 +11928,7 @@
         <v>1366</v>
       </c>
       <c r="I270" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11954,7 +11954,7 @@
         <v>1366</v>
       </c>
       <c r="I271" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11980,7 +11980,7 @@
         <v>1366</v>
       </c>
       <c r="I272" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
@@ -12006,7 +12006,7 @@
         <v>1366</v>
       </c>
       <c r="I273" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -12032,7 +12032,7 @@
         <v>1367</v>
       </c>
       <c r="I274" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
@@ -12058,7 +12058,7 @@
         <v>1322</v>
       </c>
       <c r="I275" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -12084,7 +12084,7 @@
         <v>1368</v>
       </c>
       <c r="I276" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -12110,7 +12110,7 @@
         <v>1322</v>
       </c>
       <c r="I277" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -12136,7 +12136,7 @@
         <v>1322</v>
       </c>
       <c r="I278" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
@@ -12162,7 +12162,7 @@
         <v>1322</v>
       </c>
       <c r="I279" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
@@ -12188,7 +12188,7 @@
         <v>1368</v>
       </c>
       <c r="I280" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -12214,7 +12214,7 @@
         <v>1328</v>
       </c>
       <c r="I281" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
@@ -12240,7 +12240,7 @@
         <v>1300</v>
       </c>
       <c r="I282" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
@@ -12266,7 +12266,7 @@
         <v>1300</v>
       </c>
       <c r="I283" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
@@ -12292,7 +12292,7 @@
         <v>1328</v>
       </c>
       <c r="I284" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
@@ -12318,10 +12318,10 @@
         <v>1369</v>
       </c>
       <c r="I285" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J285" t="s">
         <v>1463</v>
-      </c>
-      <c r="J285" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
@@ -12347,7 +12347,7 @@
         <v>1368</v>
       </c>
       <c r="I286" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
@@ -12373,10 +12373,10 @@
         <v>1369</v>
       </c>
       <c r="I287" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J287" t="s">
         <v>1463</v>
-      </c>
-      <c r="J287" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
@@ -12399,10 +12399,10 @@
         <v>1149</v>
       </c>
       <c r="H288" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="I288" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -12428,7 +12428,7 @@
         <v>1371</v>
       </c>
       <c r="I289" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
@@ -12454,10 +12454,10 @@
         <v>1369</v>
       </c>
       <c r="I290" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J290" t="s">
         <v>1463</v>
-      </c>
-      <c r="J290" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -12483,7 +12483,7 @@
         <v>1368</v>
       </c>
       <c r="I291" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -12509,7 +12509,7 @@
         <v>1368</v>
       </c>
       <c r="I292" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
@@ -12535,10 +12535,10 @@
         <v>1369</v>
       </c>
       <c r="I293" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J293" t="s">
         <v>1463</v>
-      </c>
-      <c r="J293" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
@@ -12564,7 +12564,7 @@
         <v>1368</v>
       </c>
       <c r="I294" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -12590,10 +12590,10 @@
         <v>1369</v>
       </c>
       <c r="I295" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J295" t="s">
         <v>1463</v>
-      </c>
-      <c r="J295" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -12616,10 +12616,10 @@
         <v>1199</v>
       </c>
       <c r="H296" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="I296" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -12645,7 +12645,7 @@
         <v>1372</v>
       </c>
       <c r="I297" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
@@ -12668,10 +12668,10 @@
         <v>1200</v>
       </c>
       <c r="H298" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="I298" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
@@ -12697,7 +12697,7 @@
         <v>1372</v>
       </c>
       <c r="I299" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
@@ -12723,7 +12723,7 @@
         <v>1373</v>
       </c>
       <c r="I300" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
@@ -12749,7 +12749,7 @@
         <v>1373</v>
       </c>
       <c r="I301" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
@@ -12772,10 +12772,10 @@
         <v>1195</v>
       </c>
       <c r="H302" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="I302" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
@@ -12801,7 +12801,7 @@
         <v>1374</v>
       </c>
       <c r="I303" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
@@ -12827,7 +12827,7 @@
         <v>1374</v>
       </c>
       <c r="I304" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12850,10 +12850,10 @@
         <v>1179</v>
       </c>
       <c r="H305" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="I305" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12876,10 +12876,10 @@
         <v>1004</v>
       </c>
       <c r="H306" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="I306" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12908,7 +12908,7 @@
         <v>1374</v>
       </c>
       <c r="I307" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12934,7 +12934,7 @@
         <v>1372</v>
       </c>
       <c r="I308" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12960,7 +12960,7 @@
         <v>1374</v>
       </c>
       <c r="I309" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12986,7 +12986,7 @@
         <v>1374</v>
       </c>
       <c r="I310" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -13012,7 +13012,7 @@
         <v>1372</v>
       </c>
       <c r="I311" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -13035,10 +13035,10 @@
         <v>1182</v>
       </c>
       <c r="H312" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="I312" t="s">
-        <v>1471</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -13064,7 +13064,7 @@
         <v>1374</v>
       </c>
       <c r="I313" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -13087,10 +13087,10 @@
         <v>1031</v>
       </c>
       <c r="H314" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="I314" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -13113,10 +13113,10 @@
         <v>1206</v>
       </c>
       <c r="H315" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="I315" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -13139,10 +13139,10 @@
         <v>1207</v>
       </c>
       <c r="H316" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="I316" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -13165,10 +13165,10 @@
         <v>1208</v>
       </c>
       <c r="H317" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="I317" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -13191,10 +13191,10 @@
         <v>1116</v>
       </c>
       <c r="H318" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="I318" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -13220,7 +13220,7 @@
         <v>1375</v>
       </c>
       <c r="I319" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -13246,7 +13246,7 @@
         <v>1376</v>
       </c>
       <c r="I320" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -13272,7 +13272,7 @@
         <v>1376</v>
       </c>
       <c r="I321" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -13298,7 +13298,7 @@
         <v>1376</v>
       </c>
       <c r="I322" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -13324,7 +13324,7 @@
         <v>1377</v>
       </c>
       <c r="I323" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -13350,7 +13350,7 @@
         <v>1377</v>
       </c>
       <c r="I324" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -13376,7 +13376,7 @@
         <v>1377</v>
       </c>
       <c r="I325" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -13399,10 +13399,10 @@
         <v>1037</v>
       </c>
       <c r="H326" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="I326" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13425,10 +13425,10 @@
         <v>1214</v>
       </c>
       <c r="H327" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="I327" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13451,10 +13451,10 @@
         <v>1138</v>
       </c>
       <c r="H328" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="I328" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13477,10 +13477,10 @@
         <v>1215</v>
       </c>
       <c r="H329" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="I329" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13506,7 +13506,7 @@
         <v>1377</v>
       </c>
       <c r="I330" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13532,7 +13532,7 @@
         <v>1376</v>
       </c>
       <c r="I331" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13555,10 +13555,10 @@
         <v>1008</v>
       </c>
       <c r="H332" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="I332" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13581,10 +13581,10 @@
         <v>1111</v>
       </c>
       <c r="H333" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="I333" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13607,10 +13607,10 @@
         <v>1216</v>
       </c>
       <c r="H334" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="I334" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13636,7 +13636,7 @@
         <v>1328</v>
       </c>
       <c r="I335" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13662,7 +13662,7 @@
         <v>1371</v>
       </c>
       <c r="I336" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -13685,10 +13685,10 @@
         <v>1218</v>
       </c>
       <c r="H337" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="I337" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -13711,10 +13711,10 @@
         <v>1076</v>
       </c>
       <c r="H338" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="I338" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -13740,7 +13740,7 @@
         <v>1378</v>
       </c>
       <c r="I339" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -13766,7 +13766,7 @@
         <v>1378</v>
       </c>
       <c r="I340" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -13792,7 +13792,7 @@
         <v>1378</v>
       </c>
       <c r="I341" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -13818,7 +13818,7 @@
         <v>1379</v>
       </c>
       <c r="I342" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -13844,7 +13844,7 @@
         <v>1379</v>
       </c>
       <c r="I343" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -13870,7 +13870,7 @@
         <v>1379</v>
       </c>
       <c r="I344" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -13896,7 +13896,7 @@
         <v>1299</v>
       </c>
       <c r="I345" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -13922,7 +13922,7 @@
         <v>1380</v>
       </c>
       <c r="I346" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13948,7 +13948,7 @@
         <v>1324</v>
       </c>
       <c r="I347" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -13974,7 +13974,7 @@
         <v>1371</v>
       </c>
       <c r="I348" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13997,10 +13997,10 @@
         <v>1163</v>
       </c>
       <c r="H349" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="I349" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -14026,7 +14026,7 @@
         <v>1379</v>
       </c>
       <c r="I350" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -14052,7 +14052,7 @@
         <v>1380</v>
       </c>
       <c r="I351" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -14078,7 +14078,7 @@
         <v>1324</v>
       </c>
       <c r="I352" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -14101,10 +14101,10 @@
         <v>1226</v>
       </c>
       <c r="H353" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="I353" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -14127,10 +14127,10 @@
         <v>1004</v>
       </c>
       <c r="H354" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="I354" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -14153,10 +14153,10 @@
         <v>1111</v>
       </c>
       <c r="H355" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="I355" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -14182,7 +14182,7 @@
         <v>1381</v>
       </c>
       <c r="I356" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -14208,7 +14208,7 @@
         <v>1309</v>
       </c>
       <c r="I357" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
@@ -14234,7 +14234,7 @@
         <v>1309</v>
       </c>
       <c r="I358" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -14260,7 +14260,7 @@
         <v>1382</v>
       </c>
       <c r="I359" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
@@ -14286,7 +14286,7 @@
         <v>1383</v>
       </c>
       <c r="I360" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
@@ -14312,7 +14312,7 @@
         <v>1383</v>
       </c>
       <c r="I361" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
@@ -14338,7 +14338,7 @@
         <v>1381</v>
       </c>
       <c r="I362" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
@@ -14364,7 +14364,7 @@
         <v>1382</v>
       </c>
       <c r="I363" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
@@ -14390,7 +14390,7 @@
         <v>1384</v>
       </c>
       <c r="I364" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
@@ -14416,7 +14416,7 @@
         <v>1384</v>
       </c>
       <c r="I365" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
@@ -14442,7 +14442,7 @@
         <v>1384</v>
       </c>
       <c r="I366" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
@@ -14468,7 +14468,7 @@
         <v>1384</v>
       </c>
       <c r="I367" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
@@ -14494,7 +14494,7 @@
         <v>1352</v>
       </c>
       <c r="I368" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
@@ -14520,7 +14520,7 @@
         <v>1352</v>
       </c>
       <c r="I369" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
@@ -14546,7 +14546,7 @@
         <v>1385</v>
       </c>
       <c r="I370" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
@@ -14572,7 +14572,7 @@
         <v>1385</v>
       </c>
       <c r="I371" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
@@ -14598,7 +14598,7 @@
         <v>1385</v>
       </c>
       <c r="I372" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -14624,7 +14624,7 @@
         <v>1385</v>
       </c>
       <c r="I373" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
@@ -14650,7 +14650,7 @@
         <v>1385</v>
       </c>
       <c r="I374" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
@@ -14676,7 +14676,7 @@
         <v>1322</v>
       </c>
       <c r="I375" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
@@ -14702,7 +14702,7 @@
         <v>1322</v>
       </c>
       <c r="I376" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
@@ -14725,10 +14725,10 @@
         <v>1235</v>
       </c>
       <c r="H377" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="I377" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
@@ -14751,10 +14751,10 @@
         <v>1236</v>
       </c>
       <c r="H378" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="I378" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
@@ -14780,7 +14780,7 @@
         <v>1386</v>
       </c>
       <c r="I379" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
@@ -14806,7 +14806,7 @@
         <v>1386</v>
       </c>
       <c r="I380" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
@@ -14832,7 +14832,7 @@
         <v>1386</v>
       </c>
       <c r="I381" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
@@ -14858,7 +14858,7 @@
         <v>1386</v>
       </c>
       <c r="I382" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
@@ -14881,7 +14881,7 @@
         <v>1239</v>
       </c>
       <c r="H383" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
@@ -14907,7 +14907,7 @@
         <v>1386</v>
       </c>
       <c r="I384" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14930,10 +14930,10 @@
         <v>1205</v>
       </c>
       <c r="H385" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="I385" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14962,7 +14962,7 @@
         <v>1334</v>
       </c>
       <c r="I386" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14991,7 +14991,7 @@
         <v>1334</v>
       </c>
       <c r="I387" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -15020,7 +15020,7 @@
         <v>1334</v>
       </c>
       <c r="I388" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -15043,10 +15043,10 @@
         <v>1243</v>
       </c>
       <c r="H389" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="I389" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -15069,10 +15069,10 @@
         <v>1185</v>
       </c>
       <c r="H390" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="I390" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -15095,10 +15095,10 @@
         <v>1244</v>
       </c>
       <c r="H391" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="I391" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -15121,10 +15121,10 @@
         <v>1245</v>
       </c>
       <c r="H392" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="I392" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -15147,10 +15147,10 @@
         <v>1064</v>
       </c>
       <c r="H393" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="I393" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -15176,7 +15176,7 @@
         <v>1387</v>
       </c>
       <c r="I394" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -15202,7 +15202,7 @@
         <v>1387</v>
       </c>
       <c r="I395" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -15228,7 +15228,7 @@
         <v>1388</v>
       </c>
       <c r="I396" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -15254,7 +15254,7 @@
         <v>1389</v>
       </c>
       <c r="I397" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -15280,7 +15280,7 @@
         <v>1389</v>
       </c>
       <c r="I398" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -15306,7 +15306,7 @@
         <v>1390</v>
       </c>
       <c r="I399" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -15329,10 +15329,10 @@
         <v>1247</v>
       </c>
       <c r="H400" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="I400" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -15358,7 +15358,7 @@
         <v>1387</v>
       </c>
       <c r="I401" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -15384,7 +15384,7 @@
         <v>1387</v>
       </c>
       <c r="I402" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -15407,10 +15407,10 @@
         <v>1248</v>
       </c>
       <c r="H403" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="I403" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -15439,7 +15439,7 @@
         <v>1391</v>
       </c>
       <c r="I404" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -15465,7 +15465,7 @@
         <v>1391</v>
       </c>
       <c r="I405" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -15491,7 +15491,7 @@
         <v>1391</v>
       </c>
       <c r="I406" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -15517,7 +15517,7 @@
         <v>1391</v>
       </c>
       <c r="I407" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -15543,7 +15543,7 @@
         <v>1391</v>
       </c>
       <c r="I408" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -15569,7 +15569,7 @@
         <v>1391</v>
       </c>
       <c r="I409" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -15595,7 +15595,7 @@
         <v>1391</v>
       </c>
       <c r="I410" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -15621,7 +15621,7 @@
         <v>1392</v>
       </c>
       <c r="I411" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -15647,7 +15647,7 @@
         <v>1392</v>
       </c>
       <c r="I412" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -15673,7 +15673,7 @@
         <v>1392</v>
       </c>
       <c r="I413" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -15699,7 +15699,7 @@
         <v>1392</v>
       </c>
       <c r="I414" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -15725,7 +15725,7 @@
         <v>1392</v>
       </c>
       <c r="I415" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -15751,7 +15751,7 @@
         <v>1392</v>
       </c>
       <c r="I416" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
@@ -15777,7 +15777,7 @@
         <v>1392</v>
       </c>
       <c r="I417" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
@@ -15803,7 +15803,7 @@
         <v>1392</v>
       </c>
       <c r="I418" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
@@ -15829,7 +15829,7 @@
         <v>1392</v>
       </c>
       <c r="I419" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.3">
@@ -15855,7 +15855,7 @@
         <v>1392</v>
       </c>
       <c r="I420" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.3">
@@ -15881,7 +15881,7 @@
         <v>1393</v>
       </c>
       <c r="I421" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
@@ -15907,7 +15907,7 @@
         <v>1394</v>
       </c>
       <c r="I422" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.3">
@@ -15933,7 +15933,7 @@
         <v>1395</v>
       </c>
       <c r="I423" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.3">
@@ -15959,7 +15959,7 @@
         <v>1395</v>
       </c>
       <c r="I424" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.3">
@@ -15985,7 +15985,7 @@
         <v>1395</v>
       </c>
       <c r="I425" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.3">
@@ -16011,7 +16011,7 @@
         <v>1370</v>
       </c>
       <c r="I426" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.3">
@@ -16037,7 +16037,7 @@
         <v>1370</v>
       </c>
       <c r="I427" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.3">
@@ -16063,7 +16063,7 @@
         <v>1370</v>
       </c>
       <c r="I428" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.3">
@@ -16089,7 +16089,7 @@
         <v>1370</v>
       </c>
       <c r="I429" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.3">
@@ -16115,7 +16115,7 @@
         <v>1396</v>
       </c>
       <c r="I430" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.3">
@@ -16144,7 +16144,7 @@
         <v>1397</v>
       </c>
       <c r="I431" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.3">
@@ -16173,7 +16173,7 @@
         <v>1397</v>
       </c>
       <c r="I432" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.3">
@@ -16202,7 +16202,7 @@
         <v>1397</v>
       </c>
       <c r="I433" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.3">
@@ -16231,7 +16231,7 @@
         <v>1397</v>
       </c>
       <c r="I434" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.3">
@@ -16260,7 +16260,7 @@
         <v>1397</v>
       </c>
       <c r="I435" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.3">
@@ -16289,7 +16289,7 @@
         <v>1397</v>
       </c>
       <c r="I436" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.3">
@@ -16318,7 +16318,7 @@
         <v>1397</v>
       </c>
       <c r="I437" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.3">
@@ -16347,7 +16347,7 @@
         <v>1397</v>
       </c>
       <c r="I438" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.3">
@@ -16376,7 +16376,7 @@
         <v>1397</v>
       </c>
       <c r="I439" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.3">
@@ -16405,7 +16405,7 @@
         <v>1397</v>
       </c>
       <c r="I440" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.3">
@@ -16434,7 +16434,7 @@
         <v>1398</v>
       </c>
       <c r="I441" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.3">
@@ -16463,7 +16463,7 @@
         <v>1398</v>
       </c>
       <c r="I442" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.3">
@@ -16492,7 +16492,7 @@
         <v>1398</v>
       </c>
       <c r="I443" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.3">
@@ -16521,7 +16521,7 @@
         <v>1398</v>
       </c>
       <c r="I444" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.3">
@@ -16550,7 +16550,7 @@
         <v>1398</v>
       </c>
       <c r="I445" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.3">
@@ -16579,7 +16579,7 @@
         <v>1398</v>
       </c>
       <c r="I446" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.3">
@@ -16608,7 +16608,7 @@
         <v>1398</v>
       </c>
       <c r="I447" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.3">
@@ -16637,7 +16637,7 @@
         <v>1399</v>
       </c>
       <c r="I448" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.3">
@@ -16666,7 +16666,7 @@
         <v>1399</v>
       </c>
       <c r="I449" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.3">
@@ -16692,7 +16692,7 @@
         <v>1400</v>
       </c>
       <c r="I450" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.3">
@@ -16718,7 +16718,7 @@
         <v>1319</v>
       </c>
       <c r="I451" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.3">
@@ -16744,7 +16744,7 @@
         <v>1319</v>
       </c>
       <c r="I452" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.3">
@@ -16770,7 +16770,7 @@
         <v>1319</v>
       </c>
       <c r="I453" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.3">
@@ -16796,7 +16796,7 @@
         <v>1401</v>
       </c>
       <c r="I454" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.3">
@@ -16822,7 +16822,7 @@
         <v>1402</v>
       </c>
       <c r="I455" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.3">
@@ -16848,7 +16848,7 @@
         <v>1319</v>
       </c>
       <c r="I456" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.3">
@@ -16874,7 +16874,7 @@
         <v>1319</v>
       </c>
       <c r="I457" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.3">
@@ -16897,10 +16897,10 @@
         <v>1272</v>
       </c>
       <c r="H458" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="I458" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.3">
@@ -16923,10 +16923,10 @@
         <v>1273</v>
       </c>
       <c r="H459" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="I459" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.3">
@@ -16949,10 +16949,10 @@
         <v>1274</v>
       </c>
       <c r="H460" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="I460" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.3">
@@ -16975,10 +16975,10 @@
         <v>1275</v>
       </c>
       <c r="H461" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="I461" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.3">
@@ -17001,10 +17001,10 @@
         <v>1276</v>
       </c>
       <c r="H462" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="I462" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.3">
@@ -17027,10 +17027,10 @@
         <v>1277</v>
       </c>
       <c r="H463" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="I463" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.3">
@@ -17053,10 +17053,10 @@
         <v>1278</v>
       </c>
       <c r="H464" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="I464" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.3">
@@ -17079,10 +17079,10 @@
         <v>1279</v>
       </c>
       <c r="H465" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="I465" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.3">
@@ -17108,7 +17108,7 @@
         <v>1403</v>
       </c>
       <c r="I466" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.3">
@@ -17134,7 +17134,7 @@
         <v>1403</v>
       </c>
       <c r="I467" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.3">
@@ -17160,7 +17160,7 @@
         <v>1403</v>
       </c>
       <c r="I468" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.3">
@@ -17186,13 +17186,13 @@
         <v>1403</v>
       </c>
       <c r="I469" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="K469" t="s">
         <v>1406</v>
       </c>
       <c r="L469" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.3">
@@ -17218,7 +17218,7 @@
         <v>1403</v>
       </c>
       <c r="I470" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.3">
@@ -17244,7 +17244,7 @@
         <v>1403</v>
       </c>
       <c r="I471" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.3">
@@ -17270,7 +17270,7 @@
         <v>1404</v>
       </c>
       <c r="I472" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.3">
@@ -17296,7 +17296,7 @@
         <v>1405</v>
       </c>
       <c r="I473" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.3">
@@ -17322,7 +17322,7 @@
         <v>1406</v>
       </c>
       <c r="I474" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.3">
@@ -17351,7 +17351,7 @@
         <v>1407</v>
       </c>
       <c r="I475" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.3">
@@ -17377,13 +17377,13 @@
         <v>1407</v>
       </c>
       <c r="I476" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="K476" t="s">
         <v>1410</v>
       </c>
       <c r="L476" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.3">
@@ -17409,19 +17409,19 @@
         <v>1407</v>
       </c>
       <c r="I477" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="K477" t="s">
         <v>1408</v>
       </c>
       <c r="L477" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="M477" t="s">
         <v>1410</v>
       </c>
       <c r="N477" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.3">
@@ -17447,7 +17447,7 @@
         <v>1407</v>
       </c>
       <c r="I478" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.3">
@@ -17473,7 +17473,7 @@
         <v>1407</v>
       </c>
       <c r="I479" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.3">
@@ -17499,7 +17499,7 @@
         <v>1408</v>
       </c>
       <c r="I480" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.3">
@@ -17525,7 +17525,7 @@
         <v>1408</v>
       </c>
       <c r="I481" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.3">
@@ -17551,7 +17551,7 @@
         <v>1408</v>
       </c>
       <c r="I482" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.3">
@@ -17577,7 +17577,7 @@
         <v>1409</v>
       </c>
       <c r="I483" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.3">
@@ -17603,7 +17603,7 @@
         <v>1410</v>
       </c>
       <c r="I484" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.3">
@@ -17629,7 +17629,7 @@
         <v>1410</v>
       </c>
       <c r="I485" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.3">
@@ -17655,7 +17655,7 @@
         <v>1411</v>
       </c>
       <c r="I486" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.3">
@@ -17681,7 +17681,7 @@
         <v>1411</v>
       </c>
       <c r="I487" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.3">
@@ -17707,7 +17707,7 @@
         <v>1411</v>
       </c>
       <c r="I488" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.3">
@@ -17733,10 +17733,10 @@
         <v>1412</v>
       </c>
       <c r="I489" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J489" t="s">
         <v>1463</v>
-      </c>
-      <c r="J489" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.3">
@@ -17762,10 +17762,10 @@
         <v>1412</v>
       </c>
       <c r="I490" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J490" t="s">
         <v>1463</v>
-      </c>
-      <c r="J490" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.3">
@@ -17791,10 +17791,10 @@
         <v>1412</v>
       </c>
       <c r="I491" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J491" t="s">
         <v>1463</v>
-      </c>
-      <c r="J491" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.3">
@@ -17820,10 +17820,10 @@
         <v>1412</v>
       </c>
       <c r="I492" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J492" t="s">
         <v>1463</v>
-      </c>
-      <c r="J492" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.3">
@@ -17849,10 +17849,10 @@
         <v>1412</v>
       </c>
       <c r="I493" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J493" t="s">
         <v>1463</v>
-      </c>
-      <c r="J493" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.3">
@@ -17878,10 +17878,10 @@
         <v>1412</v>
       </c>
       <c r="I494" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J494" t="s">
         <v>1463</v>
-      </c>
-      <c r="J494" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.3">
@@ -17907,7 +17907,7 @@
         <v>1413</v>
       </c>
       <c r="I495" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.3">
@@ -17933,7 +17933,7 @@
         <v>1413</v>
       </c>
       <c r="I496" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.3">
@@ -17959,7 +17959,7 @@
         <v>1414</v>
       </c>
       <c r="I497" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.3">
@@ -17985,7 +17985,7 @@
         <v>1366</v>
       </c>
       <c r="I498" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.3">
@@ -18011,7 +18011,7 @@
         <v>1367</v>
       </c>
       <c r="I499" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
   </sheetData>
